--- a/data/trans_dic/P16-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>16,55; 23,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>23,28; 32,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>18,3; 26,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>16,45; 30,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>33,67; 41,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>43,73; 53,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>38,42; 48,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>30,06; 44,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,97; 31,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>34,66; 41,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>29,39; 35,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>25,1; 35,41</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>17,31; 22,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,14; 36,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>28,83; 36,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>26,46; 37,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>39,46; 47,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>54,12; 62,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>43,26; 51,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>40,73; 52,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,29; 33,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>42,18; 47,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>36,65; 42,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>35,61; 44,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>23,88; 30,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>33,43; 41,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>32,82; 40,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>34,28; 43,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>41,24; 48,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>56,91; 64,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>47,86; 55,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>46,06; 53,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>34,01; 39,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>46,54; 52,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>41,58; 46,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>41,76; 47,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>35,27; 44,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>43,16; 51,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>47,65; 56,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>35,94; 52,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>51,86; 60,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>65,31; 73,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>57,08; 64,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>56,76; 63,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>45,2; 51,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>55,28; 61,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>53,9; 59,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>47,77; 56,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,62%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>68,15; 77,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>70,7; 79,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>60,6; 69,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>66,61; 73,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>70,66; 79,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>79,02; 86,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>75,18; 83,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>72,35; 77,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>70,8; 77,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>76,15; 81,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>69,07; 75,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>70,08; 74,9</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,55%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>80,02; 86,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>87,86; 92,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>84,25; 89,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>78,15; 83,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>89,74; 93,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>92,47; 96,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>91,42; 95,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>86,47; 92,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>86,27; 89,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>91,38; 94,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>89,15; 92,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>83,84; 88,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,81%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,75; 42,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,61; 52,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,05; 51,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,13; 54,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>56,82; 60,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,7; 71,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,27; 66,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>62,83; 68,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,5; 50,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,31; 61,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>56,27; 58,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>57,12; 61,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>30,48%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 30,21</t>
+          <t>17,36; 32,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 44,66</t>
+          <t>30,6; 45,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,1; 35,41</t>
+          <t>25,53; 36,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>44,45%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 37,94</t>
+          <t>27,81; 39,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,73; 52,67</t>
+          <t>44,1; 69,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,61; 44,26</t>
+          <t>38,71; 56,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>44,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,28; 43,53</t>
+          <t>34,79; 44,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,06; 53,31</t>
+          <t>46,69; 53,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,76; 47,37</t>
+          <t>42,3; 47,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>46,69%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,94; 52,36</t>
+          <t>16,14; 52,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,76; 63,88</t>
+          <t>49,1; 63,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,77; 56,94</t>
+          <t>28,16; 56,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>70,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>72,62%</t>
+          <t>72,98%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,61; 73,79</t>
+          <t>67,2; 74,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,35; 77,84</t>
+          <t>72,48; 77,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,08; 74,9</t>
+          <t>70,46; 75,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>79,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>83,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>91,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>84,31%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,02; 86,92</t>
+          <t>74,16; 83,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,86; 92,99</t>
+          <t>84,44; 91,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,25; 89,54</t>
+          <t>79,68; 87,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,15; 83,14</t>
+          <t>73,48; 80,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,74; 93,82</t>
+          <t>86,32; 92,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,47; 96,17</t>
+          <t>88,55; 94,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,42; 95,23</t>
+          <t>88,17; 94,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,47; 92,05</t>
+          <t>82,55; 96,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,27; 89,98</t>
+          <t>82,33; 87,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>91,38; 94,34</t>
+          <t>87,81; 92,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>89,15; 92,13</t>
+          <t>85,48; 90,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>83,84; 88,07</t>
+          <t>79,59; 93,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>89,6%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>84,89; 92,84</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89,9; 96,19</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>87,42; 94,08</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82,27; 89,56</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90,08; 95,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,32; 98,33</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>92,41; 97,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89,46; 93,57</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>89,13; 93,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>93,54; 97,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>91,68; 95,31</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>87,64; 91,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>50,42%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49,79%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49,3%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>66,23%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49,7%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>60,51%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>57,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>58,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>38,75; 42,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>48,61; 52,18</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>48,05; 51,41</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>49,13; 54,39</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38,2; 53,71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>56,82; 60,16</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>68,7; 71,91</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>63,27; 66,59</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>62,83; 68,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>63,28; 72,12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>48,5; 50,86</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>59,31; 61,69</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>56,27; 58,82</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>57,12; 61,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,85; 61,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 23,78</t>
+          <t>16,69; 23,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 32,08</t>
+          <t>23,29; 31,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 26,65</t>
+          <t>18,51; 26,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 32,59</t>
+          <t>17,36; 33,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 41,99</t>
+          <t>34,01; 42,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,73; 53,6</t>
+          <t>43,42; 53,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,42; 48,2</t>
+          <t>38,43; 47,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 45,27</t>
+          <t>30,78; 45,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,97; 31,74</t>
+          <t>25,99; 31,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,66; 41,21</t>
+          <t>34,55; 41,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,39; 35,79</t>
+          <t>28,96; 35,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,53; 36,57</t>
+          <t>25,09; 35,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 22,92</t>
+          <t>17,08; 23,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,14; 36,26</t>
+          <t>29,24; 36,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,83; 36,29</t>
+          <t>28,81; 36,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 39,53</t>
+          <t>27,74; 39,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,46; 47,43</t>
+          <t>39,56; 47,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,12; 62,37</t>
+          <t>54,19; 62,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,26; 51,78</t>
+          <t>43,74; 51,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,1; 69,49</t>
+          <t>44,26; 69,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 33,52</t>
+          <t>28,43; 33,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,18; 47,83</t>
+          <t>41,98; 47,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,65; 42,68</t>
+          <t>37,03; 43,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,71; 56,74</t>
+          <t>38,67; 56,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,88; 30,82</t>
+          <t>24,05; 30,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 41,15</t>
+          <t>33,17; 40,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 40,43</t>
+          <t>32,97; 40,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,79; 44,1</t>
+          <t>35,18; 43,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,24; 48,91</t>
+          <t>41,15; 48,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,91; 64,54</t>
+          <t>56,74; 64,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,86; 55,14</t>
+          <t>47,75; 55,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,69; 53,95</t>
+          <t>46,75; 54,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,32</t>
+          <t>34,22; 39,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,54; 52,08</t>
+          <t>46,58; 52,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,58; 46,68</t>
+          <t>41,39; 46,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,3; 47,84</t>
+          <t>41,98; 47,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 44,23</t>
+          <t>35,23; 44,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,16; 51,34</t>
+          <t>43,45; 51,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,65; 56,13</t>
+          <t>47,07; 55,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 52,21</t>
+          <t>16,51; 52,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 60,98</t>
+          <t>52,54; 61,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,31; 73,14</t>
+          <t>65,67; 73,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 64,89</t>
+          <t>57,12; 65,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 63,06</t>
+          <t>48,8; 63,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,2; 51,32</t>
+          <t>44,98; 51,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,28; 61,42</t>
+          <t>55,24; 61,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,9; 59,34</t>
+          <t>53,48; 59,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 56,13</t>
+          <t>26,8; 56,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,15; 77,24</t>
+          <t>68,13; 76,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,7; 79,87</t>
+          <t>71,08; 79,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,6; 69,5</t>
+          <t>60,36; 69,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,2; 74,39</t>
+          <t>66,9; 74,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,66; 79,26</t>
+          <t>70,62; 79,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,02; 86,55</t>
+          <t>78,63; 86,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,18; 83,36</t>
+          <t>75,47; 83,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,48; 77,9</t>
+          <t>72,73; 78,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 77,23</t>
+          <t>70,91; 77,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,15; 81,98</t>
+          <t>76,19; 82,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,07; 75,07</t>
+          <t>69,42; 75,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,46; 75,21</t>
+          <t>70,74; 75,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,16; 83,57</t>
+          <t>74,13; 83,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,44; 91,56</t>
+          <t>84,63; 91,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,68; 87,71</t>
+          <t>79,55; 87,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,48; 80,4</t>
+          <t>73,03; 80,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,32; 92,71</t>
+          <t>86,63; 92,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,55; 94,5</t>
+          <t>88,39; 94,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 94,28</t>
+          <t>88,93; 94,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,55; 96,06</t>
+          <t>82,32; 95,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,33; 87,85</t>
+          <t>82,29; 87,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>87,81; 92,63</t>
+          <t>87,65; 92,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 90,27</t>
+          <t>85,44; 90,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>79,59; 93,08</t>
+          <t>79,4; 91,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,89; 92,84</t>
+          <t>84,83; 92,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,9; 96,19</t>
+          <t>89,56; 96,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,42; 94,08</t>
+          <t>87,48; 94,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,27; 89,56</t>
+          <t>82,58; 89,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,08; 95,88</t>
+          <t>89,92; 96,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,32; 98,33</t>
+          <t>94,42; 98,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,23</t>
+          <t>92,35; 97,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,46; 93,57</t>
+          <t>89,75; 93,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>89,13; 93,91</t>
+          <t>89,19; 94,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,54; 97,07</t>
+          <t>93,51; 97,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,68; 95,31</t>
+          <t>91,45; 95,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>87,64; 91,36</t>
+          <t>87,52; 91,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,75; 42,26</t>
+          <t>38,87; 42,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,18</t>
+          <t>48,74; 52,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,05; 51,41</t>
+          <t>48,13; 51,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,2; 53,71</t>
+          <t>37,87; 53,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,82; 60,16</t>
+          <t>56,74; 60,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,7; 71,91</t>
+          <t>68,64; 71,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>63,27; 66,59</t>
+          <t>62,99; 66,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63,28; 72,12</t>
+          <t>63,35; 73,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,5; 50,86</t>
+          <t>48,45; 50,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>59,31; 61,69</t>
+          <t>59,2; 61,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56,27; 58,82</t>
+          <t>56,35; 58,79</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,58</t>
+          <t>51,05; 61,46</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98221</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124982</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93420</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>99913</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>177728</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>208253</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>171046</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>117456</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>275948</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>333235</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>264466</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>217369</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82440; 116786</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>105522; 142989</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77658; 111882</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69441; 132162</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>159014; 198862</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>186433; 230124</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>152107; 189830</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96405; 141283</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>249886; 303706</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>304844; 366091</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>236052; 291543</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>178955; 253131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>147640</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>225264</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>192103</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>143654</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>273149</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>356713</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>267386</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>271992</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>420789</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>581977</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>459489</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>415646</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125592; 172912</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>200624; 249465</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>170093; 214607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>117485; 169031</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>247414; 298383</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>330673; 379770</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>246501; 290495</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>226389; 357137</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>386950; 453246</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>544212; 619054</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>427364; 496397</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>361595; 530964</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>174741</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>252799</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>244872</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>210309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>312045</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>431516</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>341353</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>272869</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>486786</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>684316</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>586225</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>483178</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>153341; 197625</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>225563; 277670</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>220568; 270608</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>188670; 235371</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>283816; 337086</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>402717; 459043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>315814; 367079</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>253628; 293017</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>454199; 522514</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>647462; 723221</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>550677; 624464</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>452915; 515530</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>206302</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>291941</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>333381</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>327224</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>292277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>426140</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>396181</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>420183</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>498580</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>718081</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>729562</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>747408</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>182875; 231637</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>267068; 318449</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>304098; 360553</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>146578; 465039</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>270910; 315584</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>404009; 451846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>370782; 425074</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>347869; 449165</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>465431; 531258</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>679320; 755503</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>692619; 767774</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>428954; 900858</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>281900</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>322327</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>311639</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>397403</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>303294</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>371726</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>395309</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>409839</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>585194</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>694054</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>706949</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>807242</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>263469; 297333</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>304471; 340702</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>288474; 331765</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>375472; 418200</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>285280; 319556</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>352105; 385961</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>374992; 413822</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>396292; 426279</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>560703; 609266</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>667501; 718639</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>676666; 736798</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>782513; 832487</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>231489</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>274386</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>280600</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>282870</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>309373</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>325601</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>346418</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>540461</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>540862</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>599987</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>627019</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>823331</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>216902; 244414</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>262175; 284976</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>265961; 293380</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>268876; 295438</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>297082; 318725</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>312896; 335248</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>335926; 356602</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>500822; 580657</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>522983; 557613</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>581827; 613596</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>608386; 643980</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>775348; 889242</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>187570</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>233524</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>233973</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>244253</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>311609</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>376820</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>380923</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>390151</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>499179</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>610344</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>614896</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>634403</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>178048; 194876</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>223757; 240225</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>224817; 241723</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>233495; 252449</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>300238; 320849</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>367271; 382892</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>369552; 388842</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>381711; 398928</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>484994; 511159</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>597392; 619835</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>600959; 626427</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>619708; 645418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1327863</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1725223</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1689989</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1705627</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1979475</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2496770</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2298617</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2422952</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3307338</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4221993</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3988605</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4128578</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1273254; 1384974</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1667748; 1784240</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1633568; 1750301</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1310152; 1859567</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1917351; 2039467</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2440594; 2553846</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2232652; 2355591</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2317771; 2679727</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3224177; 3385897</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4130658; 4301986</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3910385; 4079246</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3634249; 4375000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>